--- a/Tables/Table3_Black_Binary.xlsx
+++ b/Tables/Table3_Black_Binary.xlsx
@@ -1,40 +1,289 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D7BFCB-0DC5-4DE1-807B-785CCC18FFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="B7" sheetId="2" r:id="rId2"/>
+    <sheet name="B8" sheetId="3" r:id="rId3"/>
+    <sheet name="B9" sheetId="4" r:id="rId4"/>
+    <sheet name="B10" sheetId="5" r:id="rId5"/>
+    <sheet name="B11" sheetId="6" r:id="rId6"/>
+    <sheet name="B12" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="50">
+  <si>
+    <t>Binary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCTA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDAK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># Phenotypes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># Individuals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># Causal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>B31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B32</t>
+  </si>
+  <si>
+    <t>B33</t>
+  </si>
+  <si>
+    <t>B34</t>
+  </si>
+  <si>
+    <t>B35</t>
+  </si>
+  <si>
+    <t>B36</t>
+  </si>
+  <si>
+    <t>B43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B44</t>
+  </si>
+  <si>
+    <t>B45</t>
+  </si>
+  <si>
+    <t>B46</t>
+  </si>
+  <si>
+    <t>B47</t>
+  </si>
+  <si>
+    <t>B48</t>
+  </si>
+  <si>
+    <t>B7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quantitative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B20</t>
+  </si>
+  <si>
+    <t>B21</t>
+  </si>
+  <si>
+    <t>B22</t>
+  </si>
+  <si>
+    <t>B23</t>
+  </si>
+  <si>
+    <t>B24</t>
+  </si>
+  <si>
+    <t>Software</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phenotype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power, 5E-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power, 5E-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type I Error(X2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type I Error(Fraction)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type I Error(Num &lt; 1E-4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total CPU Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memory Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bolt-lmm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bolt-lmm-inf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regenie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fastGWA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +298,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +589,5574 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>7895</v>
+      </c>
+      <c r="E2">
+        <v>0.1</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>7895</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>7895</v>
+      </c>
+      <c r="E4">
+        <v>0.9</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>7895</v>
+      </c>
+      <c r="E5">
+        <v>0.1</v>
+      </c>
+      <c r="F5">
+        <v>10000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>7895</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>10000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>7895</v>
+      </c>
+      <c r="E7">
+        <v>0.9</v>
+      </c>
+      <c r="F7">
+        <v>10000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>7895</v>
+      </c>
+      <c r="E8">
+        <v>0.1</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>7895</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>7895</v>
+      </c>
+      <c r="E10">
+        <v>0.9</v>
+      </c>
+      <c r="F10">
+        <v>1000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>7895</v>
+      </c>
+      <c r="E11">
+        <v>0.1</v>
+      </c>
+      <c r="F11">
+        <v>10000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>7895</v>
+      </c>
+      <c r="E12">
+        <v>0.5</v>
+      </c>
+      <c r="F12">
+        <v>10000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>7895</v>
+      </c>
+      <c r="E13">
+        <v>0.9</v>
+      </c>
+      <c r="F13">
+        <v>10000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14">
+        <v>7895</v>
+      </c>
+      <c r="E14">
+        <v>0.1</v>
+      </c>
+      <c r="F14">
+        <v>1000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <v>7895</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+      <c r="F15">
+        <v>1000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>7895</v>
+      </c>
+      <c r="E16">
+        <v>0.9</v>
+      </c>
+      <c r="F16">
+        <v>1000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>7895</v>
+      </c>
+      <c r="E17">
+        <v>0.1</v>
+      </c>
+      <c r="F17">
+        <v>10000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18">
+        <v>7895</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+      <c r="F18">
+        <v>10000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19">
+        <v>7895</v>
+      </c>
+      <c r="E19">
+        <v>0.9</v>
+      </c>
+      <c r="F19">
+        <v>10000</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <v>7895</v>
+      </c>
+      <c r="E20">
+        <v>0.1</v>
+      </c>
+      <c r="F20">
+        <v>1000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>7895</v>
+      </c>
+      <c r="E21">
+        <v>0.5</v>
+      </c>
+      <c r="F21">
+        <v>1000</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>7895</v>
+      </c>
+      <c r="E22">
+        <v>0.9</v>
+      </c>
+      <c r="F22">
+        <v>1000</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23">
+        <v>7895</v>
+      </c>
+      <c r="E23">
+        <v>0.1</v>
+      </c>
+      <c r="F23">
+        <v>10000</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24">
+        <v>7895</v>
+      </c>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
+      <c r="F24">
+        <v>10000</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25">
+        <v>7895</v>
+      </c>
+      <c r="E25">
+        <v>0.9</v>
+      </c>
+      <c r="F25">
+        <v>10000</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFD4CAD-C54D-4679-AC84-53A404B23779}">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5.0004744823397701E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G2" s="2">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.94125238668197297</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="4">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.19825142630107412</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87272727272727268</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>9.6</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>5.0004744823397701E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G8" s="6">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.94125238668197297</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G11" s="2">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="4">
+        <f>AVERAGE(C8:C12)</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.19825142630107412</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.87272727272727268</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G14" s="2">
+        <v>14</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.59266712455515902</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G15" s="6">
+        <v>16</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>11</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.5626164502245199</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2.40016768754221</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="4">
+        <f>AVERAGE(C14:C18)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.94309397902778758</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.90909090909090773</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G20" s="1">
+        <v>13</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G21" s="1">
+        <v>13</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.59266712455515902</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G22" s="6">
+        <v>16</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.94125099907908005</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G23" s="2">
+        <v>6</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G24" s="1">
+        <v>13</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="4">
+        <f>AVERAGE(C20:C24)</f>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.33178641963638594</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1090909090909071</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>12.2</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G26" s="1">
+        <v>13</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G27" s="1">
+        <v>13</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.59266712455515902</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G28" s="1">
+        <v>16</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.94125099907908005</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G29" s="6">
+        <v>6</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="1">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G30" s="1">
+        <v>13</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="4">
+        <f>AVERAGE(C26:C30)</f>
+        <v>1.8000000000000002E-3</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.33178641963638594</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="4"/>
+        <v>1.1090909090909071</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="4"/>
+        <v>12.2</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDE5D21-9B2C-4A8C-8F35-7A8D89D64BAD}">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.34619655078018102</v>
+      </c>
+      <c r="F2">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G2" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.02</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G3" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D4">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.94125238668197297</v>
+      </c>
+      <c r="F4">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G4" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>1.5626186183336499</v>
+      </c>
+      <c r="F5">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G5" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="8">
+        <f>AVERAGE(C2:C6)</f>
+        <v>8.14E-2</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>2.0200000000000003E-2</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.57001351115916088</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.85454545454545383</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="0"/>
+        <v>9.4</v>
+      </c>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D8">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E8">
+        <v>4.1671411580119402E-2</v>
+      </c>
+      <c r="F8">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G8" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G9" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D10">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E10">
+        <v>5.0004744823397701E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G10" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D11">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G11" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D12">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G12" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="8">
+        <f>AVERAGE(C8:C12)</f>
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>1.4400000000000001E-2</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="1"/>
+        <v>1.8335231280703419E-2</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="1"/>
+        <v>0.98181818181818115</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="1"/>
+        <v>10.8</v>
+      </c>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D14">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D15">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.01</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D17">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F17">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D18">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E18">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F18">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="8">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.06</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>1.14E-2</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="2"/>
+        <v>4.0337991533255839E-2</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="2"/>
+        <v>1.109090909090908</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="2"/>
+        <v>12.2</v>
+      </c>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D20">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F20">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G20" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D21">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E21">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F21">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D22">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D23">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E23">
+        <v>1.6335615906585299</v>
+      </c>
+      <c r="F23">
+        <v>1.72727272727273</v>
+      </c>
+      <c r="G23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="8">
+        <f>AVERAGE(C20:C24)</f>
+        <v>6.7600000000000007E-2</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="3"/>
+        <v>0.39071977125852558</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="3"/>
+        <v>1.2909090909090899</v>
+      </c>
+      <c r="G25" s="8">
+        <f t="shared" si="3"/>
+        <v>14.2</v>
+      </c>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D26">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E26">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F26">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D27">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E27">
+        <v>0.59266712455515902</v>
+      </c>
+      <c r="F27">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D28">
+        <v>0.01</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D29">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E29">
+        <v>1.6335615906585299</v>
+      </c>
+      <c r="F29">
+        <v>1.72727272727273</v>
+      </c>
+      <c r="G29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D30">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="8">
+        <f>AVERAGE(C26:C30)</f>
+        <v>6.720000000000001E-2</v>
+      </c>
+      <c r="D31" s="8">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>1.4799999999999999E-2</v>
+      </c>
+      <c r="E31" s="8">
+        <f t="shared" si="4"/>
+        <v>0.47724946960614761</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="4"/>
+        <v>1.3272727272727258</v>
+      </c>
+      <c r="G31" s="8">
+        <f t="shared" si="4"/>
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325AEC0D-6560-4A7E-AE68-2BDB30BE70AC}">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="D2">
+        <v>0.192</v>
+      </c>
+      <c r="E2">
+        <v>0.94125238668197297</v>
+      </c>
+      <c r="F2">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G2" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="D3">
+        <v>0.191</v>
+      </c>
+      <c r="E3">
+        <v>0.34619655078018102</v>
+      </c>
+      <c r="F3">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G3" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0.34</v>
+      </c>
+      <c r="D4">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.50004270300534304</v>
+      </c>
+      <c r="F4">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G4" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0.35</v>
+      </c>
+      <c r="D5">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0.3</v>
+      </c>
+      <c r="D6">
+        <v>0.153</v>
+      </c>
+      <c r="E6">
+        <v>0.160018979743868</v>
+      </c>
+      <c r="F6">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G6" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="8">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.3296</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>0.1948</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.38950212404227302</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.96363636363636229</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="0"/>
+        <v>10.6</v>
+      </c>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="D8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.94125238668197297</v>
+      </c>
+      <c r="F8">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G8" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.94125238668197297</v>
+      </c>
+      <c r="F9">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G9" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0.158</v>
+      </c>
+      <c r="D10">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.210545294993011</v>
+      </c>
+      <c r="F10">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G10" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="D11">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E11">
+        <v>5.0004744823397701E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G11" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="D12">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.160018979743868</v>
+      </c>
+      <c r="F12">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G12" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="8">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.1656</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="1"/>
+        <v>0.46061475858484446</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="1"/>
+        <v>0.78181818181818097</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="1"/>
+        <v>8.6</v>
+      </c>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.158</v>
+      </c>
+      <c r="D14">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E14">
+        <v>3.0307688680889999</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="D15">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0.15</v>
+      </c>
+      <c r="D16">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E16">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F16">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="D17">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.161</v>
+      </c>
+      <c r="D18">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="8">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.16120000000000001</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>5.8399999999999994E-2</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="2"/>
+        <v>0.61615470523695415</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="2"/>
+        <v>1.1999999999999997</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="2"/>
+        <v>13.2</v>
+      </c>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0.157</v>
+      </c>
+      <c r="D20">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E20">
+        <v>3.0307688680889999</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="D21">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E21">
+        <v>0.34619577018749698</v>
+      </c>
+      <c r="F21">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>0.156</v>
+      </c>
+      <c r="D22">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E22">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="D23">
+        <v>0.06</v>
+      </c>
+      <c r="E23">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F23">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="D24">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E24">
+        <v>3.5593871957585499</v>
+      </c>
+      <c r="F24">
+        <v>2.0909090909090899</v>
+      </c>
+      <c r="G24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="8">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="3"/>
+        <v>1.4292750249895732</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="3"/>
+        <v>1.5090909090909075</v>
+      </c>
+      <c r="G25" s="8">
+        <f t="shared" si="3"/>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0.157</v>
+      </c>
+      <c r="D26">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E26">
+        <v>2.0648142624376402</v>
+      </c>
+      <c r="F26">
+        <v>1.8181818181818199</v>
+      </c>
+      <c r="G26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="D27">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E27">
+        <v>0.34619577018749698</v>
+      </c>
+      <c r="F27">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>0.155</v>
+      </c>
+      <c r="D28">
+        <v>0.06</v>
+      </c>
+      <c r="E28">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="D29">
+        <v>0.06</v>
+      </c>
+      <c r="E29">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F29">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="D30">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E30">
+        <v>3.5593871957585499</v>
+      </c>
+      <c r="F30">
+        <v>2.0909090909090899</v>
+      </c>
+      <c r="G30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="8">
+        <f>AVERAGE(C26:C30)</f>
+        <v>0.16339999999999999</v>
+      </c>
+      <c r="D31" s="8">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>5.7399999999999993E-2</v>
+      </c>
+      <c r="E31" s="8">
+        <f t="shared" si="4"/>
+        <v>1.2124146422657376</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="4"/>
+        <v>1.4545454545454537</v>
+      </c>
+      <c r="G31" s="8">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B703A7CD-3163-490B-867C-E4EA0566EEE2}">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G2" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.160018979743868</v>
+      </c>
+      <c r="F4">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G4" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.94125238668197297</v>
+      </c>
+      <c r="F6">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G6" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="10">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1.4000000000000001E-4</v>
+      </c>
+      <c r="D7" s="10">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" si="0"/>
+        <v>0.22025427328516817</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="0"/>
+        <v>0.98181818181818092</v>
+      </c>
+      <c r="G7" s="10">
+        <f t="shared" si="0"/>
+        <v>10.8</v>
+      </c>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G8" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.160018979743868</v>
+      </c>
+      <c r="F10">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G10" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0.94125238668197297</v>
+      </c>
+      <c r="F12">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G12" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="10">
+        <f>AVERAGE(C8:C12)</f>
+        <v>1.4000000000000001E-4</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="1"/>
+        <v>0.22025427328516817</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="1"/>
+        <v>0.98181818181818092</v>
+      </c>
+      <c r="G13" s="10">
+        <f t="shared" si="1"/>
+        <v>10.8</v>
+      </c>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0.59266712455515902</v>
+      </c>
+      <c r="F16">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0.59266712455515902</v>
+      </c>
+      <c r="F17">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="10">
+        <f>AVERAGE(C14:C18)</f>
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="D19" s="10">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="2"/>
+        <v>0.25706871306037182</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="2"/>
+        <v>1.0909090909090891</v>
+      </c>
+      <c r="G19" s="10">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G20" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F22">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F24">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="10">
+        <f>AVERAGE(C20:C24)</f>
+        <v>1.2000000000000002E-4</v>
+      </c>
+      <c r="D25" s="10">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="10">
+        <f t="shared" si="3"/>
+        <v>4.2004658182563902E-2</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="3"/>
+        <v>1.0727272727272716</v>
+      </c>
+      <c r="G25" s="10">
+        <f t="shared" si="3"/>
+        <v>11.8</v>
+      </c>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F28">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="10">
+        <f>AVERAGE(C26:C30)</f>
+        <v>1.2000000000000002E-4</v>
+      </c>
+      <c r="D31" s="10">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="10">
+        <f t="shared" si="4"/>
+        <v>4.2004658182563902E-2</v>
+      </c>
+      <c r="F31" s="10">
+        <f t="shared" si="4"/>
+        <v>1.0727272727272716</v>
+      </c>
+      <c r="G31" s="10">
+        <f t="shared" si="4"/>
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72071CE8-A87F-4911-9BFD-CC74B549368C}">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.160018979743868</v>
+      </c>
+      <c r="F2">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G2" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>4.1671411580119402E-2</v>
+      </c>
+      <c r="F3">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G3" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.94125238668197297</v>
+      </c>
+      <c r="F4">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G4" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="E5">
+        <v>0.50004270300534304</v>
+      </c>
+      <c r="F5">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G5" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.50004270300534304</v>
+      </c>
+      <c r="F6">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G6" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="8">
+        <f>AVERAGE(C2:C6)</f>
+        <v>7.6000000000000004E-4</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.4286056368033293</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.85454545454545339</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="0"/>
+        <v>9.4</v>
+      </c>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0.160018979743868</v>
+      </c>
+      <c r="F8">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G8" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>4.1671411580119402E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G9" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.94125238668197297</v>
+      </c>
+      <c r="F10">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G10" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="E11">
+        <v>0.50004270300534304</v>
+      </c>
+      <c r="F11">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G11" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" s="7">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0.50004270300534304</v>
+      </c>
+      <c r="F12">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G12" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="8">
+        <f>AVERAGE(C8:C12)</f>
+        <v>7.3999999999999999E-4</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="1"/>
+        <v>0.4286056368033293</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="1"/>
+        <v>0.85454545454545339</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.4</v>
+      </c>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F15">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F16">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="7">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0.50004192247137602</v>
+      </c>
+      <c r="F18">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="8">
+        <f>AVERAGE(C14:C18)</f>
+        <v>7.3999999999999999E-4</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="2"/>
+        <v>0.11667691443396729</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="2"/>
+        <v>0.99999999999999889</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2.0648142624376402</v>
+      </c>
+      <c r="F20">
+        <v>1.8181818181818199</v>
+      </c>
+      <c r="G20" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0.89297359959113698</v>
+      </c>
+      <c r="F21">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F22">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" s="7">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="E23">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="8">
+        <f>AVERAGE(C20:C24)</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="3"/>
+        <v>0.64366749364206233</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="3"/>
+        <v>1.181818181818183</v>
+      </c>
+      <c r="G25" s="8">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>2.0648142624376402</v>
+      </c>
+      <c r="F26">
+        <v>1.8181818181818199</v>
+      </c>
+      <c r="G26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0.59266712455515902</v>
+      </c>
+      <c r="F27">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F28">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" s="7">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="E29">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F29">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="8">
+        <f>AVERAGE(C26:C30)</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="D31" s="8">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E31" s="8">
+        <f t="shared" si="4"/>
+        <v>0.6157142566328655</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="4"/>
+        <v>1.1454545454545448</v>
+      </c>
+      <c r="G31" s="8">
+        <f t="shared" si="4"/>
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC360889-E482-4600-A906-67B8B7C4FC1C}">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G37" sqref="A32:G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="D2" s="7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E2">
+        <v>5.0004744823397701E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G2" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>5.3E-3</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E3">
+        <v>5.0004744823397701E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G3" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E4">
+        <v>2.0648198135799301</v>
+      </c>
+      <c r="F4">
+        <v>1.8181818181818199</v>
+      </c>
+      <c r="G4" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E5">
+        <v>0.59266851228853401</v>
+      </c>
+      <c r="F5">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G5" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="E6">
+        <v>0.50004270300534304</v>
+      </c>
+      <c r="F6">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G6" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="8">
+        <f>AVERAGE(C2:C6)</f>
+        <v>4.1400000000000005E-3</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.65150810370412049</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>1.1090909090909082</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="0"/>
+        <v>12.2</v>
+      </c>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E8">
+        <v>5.0004744823397701E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G8" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E9">
+        <v>5.0004744823397701E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G9" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E10">
+        <v>1.63356584071188</v>
+      </c>
+      <c r="F10">
+        <v>1.72727272727273</v>
+      </c>
+      <c r="G10" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E11">
+        <v>1.24155013128178</v>
+      </c>
+      <c r="F11">
+        <v>1.63636363636364</v>
+      </c>
+      <c r="G11" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="E12">
+        <v>0.50004270300534304</v>
+      </c>
+      <c r="F12">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G12" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="8">
+        <f>AVERAGE(C8:C12)</f>
+        <v>3.9999999999999992E-3</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>3.0000000000000003E-4</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="1"/>
+        <v>0.69503363292915965</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="1"/>
+        <v>1.1272727272727283</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="1"/>
+        <v>12.4</v>
+      </c>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E14">
+        <v>4.1149565269473003</v>
+      </c>
+      <c r="F14">
+        <v>2.1818181818181799</v>
+      </c>
+      <c r="G14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E15">
+        <v>0.94125099907908005</v>
+      </c>
+      <c r="F15">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E16">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F16">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E17">
+        <v>1.6335615906585299</v>
+      </c>
+      <c r="F17">
+        <v>1.72727272727273</v>
+      </c>
+      <c r="G17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>3.3E-3</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="8">
+        <f>AVERAGE(C14:C18)</f>
+        <v>3.8200000000000005E-3</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>2.2000000000000001E-4</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="2"/>
+        <v>1.346288088306828</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="2"/>
+        <v>1.3272727272727269</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="2"/>
+        <v>14.6</v>
+      </c>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E20">
+        <v>0.89297359959113698</v>
+      </c>
+      <c r="F20">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G20" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="E22">
+        <v>5.2982103563712899</v>
+      </c>
+      <c r="F22">
+        <v>2.3636363636363602</v>
+      </c>
+      <c r="G22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E23">
+        <v>2.5316273268488998</v>
+      </c>
+      <c r="F23">
+        <v>1.9090909090909101</v>
+      </c>
+      <c r="G23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0.59266712455515902</v>
+      </c>
+      <c r="F24">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="8">
+        <f>AVERAGE(C20:C24)</f>
+        <v>4.1599999999999996E-3</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="3"/>
+        <v>1.8630956814732973</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="3"/>
+        <v>1.636363636363636</v>
+      </c>
+      <c r="G25" s="8">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E26">
+        <v>0.89297359959113698</v>
+      </c>
+      <c r="F26">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="D27" s="7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="E28">
+        <v>5.2982103563712899</v>
+      </c>
+      <c r="F28">
+        <v>2.3636363636363602</v>
+      </c>
+      <c r="G28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E29">
+        <v>2.0648142624376402</v>
+      </c>
+      <c r="F29">
+        <v>1.8181818181818199</v>
+      </c>
+      <c r="G29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0.59266712455515902</v>
+      </c>
+      <c r="F30">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="8">
+        <f>AVERAGE(C26:C30)</f>
+        <v>4.1399999999999996E-3</v>
+      </c>
+      <c r="D31" s="8">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="E31" s="8">
+        <f t="shared" si="4"/>
+        <v>1.7697330685910455</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="4"/>
+        <v>1.6181818181818179</v>
+      </c>
+      <c r="G31" s="8">
+        <f t="shared" si="4"/>
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tables/Table3_Black_Binary.xlsx
+++ b/Tables/Table3_Black_Binary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D7BFCB-0DC5-4DE1-807B-785CCC18FFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD977215-5D82-45B2-BBA7-6FC346B7D570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50" yWindow="1130" windowWidth="21550" windowHeight="12550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -623,13 +623,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>7895</v>
@@ -646,13 +646,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>7895</v>
@@ -669,13 +669,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>7895</v>
@@ -692,13 +692,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>7895</v>
@@ -715,13 +715,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D6">
         <v>7895</v>
@@ -738,13 +738,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>7895</v>
@@ -761,13 +761,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <v>7895</v>
@@ -784,13 +784,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>7895</v>
@@ -807,13 +807,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>7895</v>
@@ -830,13 +830,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D11">
         <v>7895</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D12">
         <v>7895</v>
@@ -876,13 +876,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D13">
         <v>7895</v>
@@ -899,13 +899,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>7895</v>
@@ -922,13 +922,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>7895</v>
@@ -945,13 +945,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>7895</v>
@@ -968,13 +968,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>7895</v>
@@ -991,13 +991,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>7895</v>
@@ -1014,13 +1014,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>7895</v>
@@ -1037,13 +1037,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>7895</v>
@@ -1060,13 +1060,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>7895</v>
@@ -1083,13 +1083,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>7895</v>
@@ -1106,13 +1106,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>7895</v>
@@ -1129,13 +1129,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>7895</v>
@@ -1152,13 +1152,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>7895</v>
@@ -1183,7 +1183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFD4CAD-C54D-4679-AC84-53A404B23779}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>

--- a/Tables/Table3_Black_Binary.xlsx
+++ b/Tables/Table3_Black_Binary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD977215-5D82-45B2-BBA7-6FC346B7D570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBA9ECB-863B-412D-975A-410D4534BDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50" yWindow="1130" windowWidth="21550" windowHeight="12550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,12 @@
     <sheet name="B10" sheetId="5" r:id="rId5"/>
     <sheet name="B11" sheetId="6" r:id="rId6"/>
     <sheet name="B12" sheetId="7" r:id="rId7"/>
+    <sheet name="B19" sheetId="8" r:id="rId8"/>
+    <sheet name="B20" sheetId="9" r:id="rId9"/>
+    <sheet name="B21" sheetId="10" r:id="rId10"/>
+    <sheet name="B22" sheetId="11" r:id="rId11"/>
+    <sheet name="B23" sheetId="12" r:id="rId12"/>
+    <sheet name="B24" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="50">
   <si>
     <t>Binary</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -592,7 +598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -1174,6 +1180,58 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB27B53A-87CD-46B4-903D-EC58AA8F9F63}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710D5BD2-9630-4949-9306-53D9D22DCDD8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C7804E-8050-4758-80A5-02B88716D66F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064FE5B8-6C62-4961-A9DD-ABC7E96C5962}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1183,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFD4CAD-C54D-4679-AC84-53A404B23779}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2061,7 +2119,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:G37"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5344,8 +5402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC360889-E482-4600-A906-67B8B7C4FC1C}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G37" sqref="A32:G37"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection sqref="A1:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6159,4 +6217,426 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366DF001-9588-41CA-A81D-3906F848E413}">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="9" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DAD1493-2A2B-4449-856B-CFE0C9983370}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>